--- a/results/mp/logistic/corona/confidence/126/masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/masking-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="87">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,244 +43,235 @@
     <t>crude</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>die</t>
+    <t>collapse</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>collapse</t>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>low</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>fears</t>
+    <t>no</t>
   </si>
   <si>
     <t>cut</t>
   </si>
   <si>
+    <t>lower</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>avoid</t>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>fight</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
     <t>oil</t>
   </si>
   <si>
+    <t>of</t>
+  </si>
+  <si>
     <t>prices</t>
   </si>
   <si>
-    <t>of</t>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
   <si>
     <t>a</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>the</t>
   </si>
   <si>
     <t>.</t>
   </si>
   <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
     <t>,</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>are</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>corona</t>
@@ -649,10 +640,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -710,13 +701,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8823529411764706</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -728,31 +719,31 @@
         <v>0</v>
       </c>
       <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3">
+        <v>0.9322033898305084</v>
+      </c>
+      <c r="L3">
+        <v>55</v>
+      </c>
+      <c r="M3">
+        <v>55</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>4</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3">
-        <v>0.9347826086956522</v>
-      </c>
-      <c r="L3">
-        <v>43</v>
-      </c>
-      <c r="M3">
-        <v>43</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -760,13 +751,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8055555555555556</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -778,19 +769,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -802,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -810,13 +801,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.797945205479452</v>
+        <v>0.791095890410959</v>
       </c>
       <c r="C5">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D5">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -828,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K5">
-        <v>0.9230769230769231</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L5">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -852,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -860,13 +851,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7586206896551724</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -878,19 +869,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K6">
-        <v>0.9</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -902,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -910,13 +901,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7567567567567568</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -928,19 +919,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K7">
-        <v>0.8787878787878788</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -952,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -960,13 +951,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7368421052631579</v>
+        <v>0.7</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -978,19 +969,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K8">
-        <v>0.8660714285714286</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L8">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="M8">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1002,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1010,13 +1001,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7307692307692307</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1028,19 +1019,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9">
+        <v>0.8448275862068966</v>
+      </c>
+      <c r="L9">
         <v>49</v>
       </c>
-      <c r="K9">
-        <v>0.8611111111111112</v>
-      </c>
-      <c r="L9">
-        <v>31</v>
-      </c>
       <c r="M9">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1052,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1060,13 +1051,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6333333333333333</v>
+        <v>0.5978835978835979</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1078,19 +1069,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K10">
-        <v>0.8328981723237598</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="L10">
-        <v>319</v>
+        <v>39</v>
       </c>
       <c r="M10">
-        <v>319</v>
+        <v>39</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1102,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1110,13 +1101,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5932203389830508</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="C11">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1128,19 +1119,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K11">
-        <v>0.8205128205128205</v>
+        <v>0.8276762402088773</v>
       </c>
       <c r="L11">
-        <v>32</v>
+        <v>317</v>
       </c>
       <c r="M11">
-        <v>32</v>
+        <v>317</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1152,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1160,13 +1151,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5661375661375662</v>
+        <v>0.525</v>
       </c>
       <c r="C12">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1178,10 +1169,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K12">
         <v>0.8113207547169812</v>
@@ -1210,13 +1201,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.55</v>
+        <v>0.5213178294573644</v>
       </c>
       <c r="C13">
-        <v>22</v>
+        <v>269</v>
       </c>
       <c r="D13">
-        <v>22</v>
+        <v>269</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1228,19 +1219,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>18</v>
+        <v>247</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K13">
-        <v>0.80625</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L13">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="M13">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1252,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1260,13 +1251,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5369127516778524</v>
+        <v>0.4832214765100671</v>
       </c>
       <c r="C14">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D14">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1278,19 +1269,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K14">
-        <v>0.8046875</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L14">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="M14">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1302,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1310,13 +1301,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5329457364341085</v>
+        <v>0.4745762711864407</v>
       </c>
       <c r="C15">
-        <v>275</v>
+        <v>28</v>
       </c>
       <c r="D15">
-        <v>275</v>
+        <v>28</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1328,19 +1319,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>241</v>
+        <v>31</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K15">
-        <v>0.7931034482758621</v>
+        <v>0.78125</v>
       </c>
       <c r="L15">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="M15">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1352,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1360,13 +1351,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4705882352941176</v>
+        <v>0.4083333333333333</v>
       </c>
       <c r="C16">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="D16">
-        <v>24</v>
+        <v>147</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1378,19 +1369,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>27</v>
+        <v>213</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K16">
-        <v>0.7816901408450704</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L16">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="M16">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1402,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1410,13 +1401,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4363636363636363</v>
+        <v>0.4</v>
       </c>
       <c r="C17">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D17">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1428,19 +1419,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K17">
-        <v>0.7804878048780488</v>
+        <v>0.775</v>
       </c>
       <c r="L17">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="M17">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1452,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1460,49 +1451,49 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4266666666666667</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C18">
+        <v>22</v>
+      </c>
+      <c r="D18">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>34</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K18">
+        <v>0.7746478873239436</v>
+      </c>
+      <c r="L18">
+        <v>110</v>
+      </c>
+      <c r="M18">
+        <v>110</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>32</v>
-      </c>
-      <c r="D18">
-        <v>32</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>43</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K18">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L18">
-        <v>28</v>
-      </c>
-      <c r="M18">
-        <v>28</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1510,13 +1501,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4222222222222222</v>
+        <v>0.3733333333333334</v>
       </c>
       <c r="C19">
-        <v>152</v>
+        <v>28</v>
       </c>
       <c r="D19">
-        <v>152</v>
+        <v>28</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1528,19 +1519,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>208</v>
+        <v>47</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K19">
-        <v>0.7659574468085106</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L19">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1552,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1560,13 +1551,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4107142857142857</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="C20">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="D20">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1578,19 +1569,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>33</v>
+        <v>175</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K20">
-        <v>0.75</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L20">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="M20">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1602,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1610,13 +1601,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3818181818181818</v>
+        <v>0.275</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D21">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1628,19 +1619,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K21">
-        <v>0.7291666666666666</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="L21">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1652,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1660,13 +1651,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2888888888888889</v>
+        <v>0.2555555555555555</v>
       </c>
       <c r="C22">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D22">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1678,19 +1669,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K22">
-        <v>0.725</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L22">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="M22">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1702,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1710,13 +1701,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2619047619047619</v>
+        <v>0.1715817694369973</v>
       </c>
       <c r="C23">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D23">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1728,19 +1719,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>186</v>
+        <v>309</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K23">
         <v>0.7142857142857143</v>
       </c>
       <c r="L23">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="M23">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1752,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1760,37 +1751,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2597402597402597</v>
+        <v>0.09</v>
       </c>
       <c r="C24">
+        <v>27</v>
+      </c>
+      <c r="D24">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>273</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K24">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L24">
         <v>20</v>
       </c>
-      <c r="D24">
+      <c r="M24">
         <v>20</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>57</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K24">
-        <v>0.7037037037037037</v>
-      </c>
-      <c r="L24">
-        <v>19</v>
-      </c>
-      <c r="M24">
-        <v>19</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1810,37 +1801,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.2375</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="C25">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D25">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
+        <v>2323</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="K25">
-        <v>0.6976744186046512</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L25">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M25">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1852,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1860,37 +1851,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1662198391420912</v>
+        <v>0.01810344827586207</v>
       </c>
       <c r="C26">
+        <v>21</v>
+      </c>
+      <c r="D26">
+        <v>22</v>
+      </c>
+      <c r="E26">
+        <v>0.05</v>
+      </c>
+      <c r="F26">
+        <v>0.95</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1139</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D26">
-        <v>62</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>311</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="K26">
-        <v>0.6857142857142857</v>
+        <v>0.65</v>
       </c>
       <c r="L26">
-        <v>24</v>
+        <v>221</v>
       </c>
       <c r="M26">
-        <v>24</v>
+        <v>221</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1902,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1910,37 +1901,37 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.09333333333333334</v>
+        <v>0.01496725912067353</v>
       </c>
       <c r="C27">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D27">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>272</v>
+        <v>2106</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K27">
-        <v>0.6558823529411765</v>
+        <v>0.65</v>
       </c>
       <c r="L27">
-        <v>223</v>
+        <v>26</v>
       </c>
       <c r="M27">
-        <v>223</v>
+        <v>26</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1952,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>117</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1960,37 +1951,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.01810344827586207</v>
+        <v>0.01484828921885087</v>
       </c>
       <c r="C28">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="D28">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="E28">
-        <v>0.05</v>
+        <v>0.16</v>
       </c>
       <c r="F28">
-        <v>0.95</v>
+        <v>0.84</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>1139</v>
+        <v>3052</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K28">
-        <v>0.6169491525423729</v>
+        <v>0.64</v>
       </c>
       <c r="L28">
-        <v>182</v>
+        <v>32</v>
       </c>
       <c r="M28">
-        <v>182</v>
+        <v>32</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2002,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>113</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2010,37 +2001,37 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.0169061707523246</v>
+        <v>0.01045296167247387</v>
       </c>
       <c r="C29">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D29">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E29">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="F29">
-        <v>0.75</v>
+        <v>0.65</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
       <c r="H29">
-        <v>2326</v>
+        <v>2272</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K29">
-        <v>0.6153846153846154</v>
+        <v>0.6</v>
       </c>
       <c r="L29">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M29">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2052,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2060,37 +2051,37 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.01571366215626364</v>
+        <v>0.008578670306102555</v>
       </c>
       <c r="C30">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D30">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="E30">
-        <v>0.33</v>
+        <v>0.45</v>
       </c>
       <c r="F30">
-        <v>0.6699999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>2255</v>
+        <v>5085</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K30">
-        <v>0.6150627615062761</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L30">
-        <v>147</v>
+        <v>56</v>
       </c>
       <c r="M30">
-        <v>147</v>
+        <v>56</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2102,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>92</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2110,49 +2101,49 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.01547887778136085</v>
+        <v>0.008297915401740538</v>
       </c>
       <c r="C31">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D31">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="E31">
-        <v>0.11</v>
+        <v>0.57</v>
       </c>
       <c r="F31">
-        <v>0.89</v>
+        <v>0.43</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>3053</v>
+        <v>4900</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K31">
-        <v>0.5757575757575758</v>
+        <v>0.5850340136054422</v>
       </c>
       <c r="L31">
-        <v>19</v>
+        <v>172</v>
       </c>
       <c r="M31">
-        <v>19</v>
+        <v>173</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>14</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2160,691 +2151,595 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.0126522961574508</v>
+        <v>0.007004436142890497</v>
       </c>
       <c r="C32">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D32">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="E32">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="F32">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>2107</v>
+        <v>4253</v>
       </c>
       <c r="J32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K32">
+        <v>0.5757575757575758</v>
+      </c>
+      <c r="L32">
+        <v>19</v>
+      </c>
+      <c r="M32">
+        <v>19</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K33">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L33">
+        <v>40</v>
+      </c>
+      <c r="M33">
+        <v>40</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K34">
+        <v>0.5690376569037657</v>
+      </c>
+      <c r="L34">
+        <v>136</v>
+      </c>
+      <c r="M34">
+        <v>136</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K35">
+        <v>0.5393258426966292</v>
+      </c>
+      <c r="L35">
+        <v>48</v>
+      </c>
+      <c r="M35">
+        <v>48</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K32">
-        <v>0.5638297872340425</v>
-      </c>
-      <c r="L32">
-        <v>53</v>
-      </c>
-      <c r="M32">
-        <v>53</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>0.009775171065493646</v>
-      </c>
-      <c r="C33">
-        <v>50</v>
-      </c>
-      <c r="D33">
-        <v>100</v>
-      </c>
-      <c r="E33">
-        <v>0.5</v>
-      </c>
-      <c r="F33">
-        <v>0.5</v>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>5065</v>
-      </c>
-      <c r="J33" s="1" t="s">
+      <c r="K36">
+        <v>0.4523809523809524</v>
+      </c>
+      <c r="L36">
+        <v>19</v>
+      </c>
+      <c r="M36">
+        <v>19</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K33">
-        <v>0.5428571428571428</v>
-      </c>
-      <c r="L33">
-        <v>38</v>
-      </c>
-      <c r="M33">
-        <v>38</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="1" t="s">
+      <c r="K37">
+        <v>0.4509803921568628</v>
+      </c>
+      <c r="L37">
+        <v>23</v>
+      </c>
+      <c r="M37">
+        <v>23</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K38">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="L38">
+        <v>20</v>
+      </c>
+      <c r="M38">
+        <v>20</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K39">
+        <v>0.3974358974358974</v>
+      </c>
+      <c r="L39">
+        <v>31</v>
+      </c>
+      <c r="M39">
+        <v>31</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K40">
+        <v>0.3424657534246575</v>
+      </c>
+      <c r="L40">
+        <v>25</v>
+      </c>
+      <c r="M40">
+        <v>25</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K41">
+        <v>0.328125</v>
+      </c>
+      <c r="L41">
+        <v>21</v>
+      </c>
+      <c r="M41">
+        <v>21</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K42">
+        <v>0.1962616822429906</v>
+      </c>
+      <c r="L42">
+        <v>21</v>
+      </c>
+      <c r="M42">
+        <v>23</v>
+      </c>
+      <c r="N42">
+        <v>0.91</v>
+      </c>
+      <c r="O42">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K43">
+        <v>0.04013377926421405</v>
+      </c>
+      <c r="L43">
+        <v>48</v>
+      </c>
+      <c r="M43">
+        <v>52</v>
+      </c>
+      <c r="N43">
+        <v>0.92</v>
+      </c>
+      <c r="O43">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K44">
+        <v>0.03676470588235294</v>
+      </c>
+      <c r="L44">
+        <v>20</v>
+      </c>
+      <c r="M44">
+        <v>23</v>
+      </c>
+      <c r="N44">
+        <v>0.87</v>
+      </c>
+      <c r="O44">
+        <v>0.13</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K45">
+        <v>0.01731275875047045</v>
+      </c>
+      <c r="L45">
+        <v>46</v>
+      </c>
+      <c r="M45">
+        <v>62</v>
+      </c>
+      <c r="N45">
+        <v>0.74</v>
+      </c>
+      <c r="O45">
+        <v>0.26</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K46">
+        <v>0.01729559748427673</v>
+      </c>
+      <c r="L46">
+        <v>22</v>
+      </c>
+      <c r="M46">
         <v>39</v>
       </c>
-      <c r="B34">
-        <v>0.009693053311793215</v>
-      </c>
-      <c r="C34">
-        <v>48</v>
-      </c>
-      <c r="D34">
-        <v>92</v>
-      </c>
-      <c r="E34">
-        <v>0.48</v>
-      </c>
-      <c r="F34">
-        <v>0.52</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>4904</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K34">
-        <v>0.5294117647058824</v>
-      </c>
-      <c r="L34">
-        <v>27</v>
-      </c>
-      <c r="M34">
-        <v>27</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35">
-        <v>0.007896924355777223</v>
-      </c>
-      <c r="C35">
-        <v>19</v>
-      </c>
-      <c r="D35">
-        <v>58</v>
-      </c>
-      <c r="E35">
-        <v>0.67</v>
-      </c>
-      <c r="F35">
-        <v>0.33</v>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>2387</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K35">
-        <v>0.5280898876404494</v>
-      </c>
-      <c r="L35">
-        <v>47</v>
-      </c>
-      <c r="M35">
-        <v>47</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36">
-        <v>0.006782039289055191</v>
-      </c>
-      <c r="C36">
+      <c r="N46">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O46">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K47">
+        <v>0.01450189155107188</v>
+      </c>
+      <c r="L47">
+        <v>23</v>
+      </c>
+      <c r="M47">
+        <v>31</v>
+      </c>
+      <c r="N47">
+        <v>0.74</v>
+      </c>
+      <c r="O47">
+        <v>0.26</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K48">
+        <v>0.01213389121338912</v>
+      </c>
+      <c r="L48">
         <v>29</v>
       </c>
-      <c r="D36">
-        <v>81</v>
-      </c>
-      <c r="E36">
-        <v>0.64</v>
-      </c>
-      <c r="F36">
-        <v>0.36</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>4247</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K36">
-        <v>0.52</v>
-      </c>
-      <c r="L36">
-        <v>26</v>
-      </c>
-      <c r="M36">
-        <v>26</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="J37" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K37">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="L37">
-        <v>21</v>
-      </c>
-      <c r="M37">
-        <v>21</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="J38" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K38">
-        <v>0.4246575342465753</v>
-      </c>
-      <c r="L38">
-        <v>31</v>
-      </c>
-      <c r="M38">
-        <v>31</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="J39" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K39">
-        <v>0.3859649122807017</v>
-      </c>
-      <c r="L39">
-        <v>22</v>
-      </c>
-      <c r="M39">
-        <v>22</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="J40" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K40">
-        <v>0.375</v>
-      </c>
-      <c r="L40">
-        <v>24</v>
-      </c>
-      <c r="M40">
-        <v>24</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="J41" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K41">
-        <v>0.3076923076923077</v>
-      </c>
-      <c r="L41">
-        <v>24</v>
-      </c>
-      <c r="M41">
-        <v>24</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="J42" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K42">
-        <v>0.1032608695652174</v>
-      </c>
-      <c r="L42">
-        <v>19</v>
-      </c>
-      <c r="M42">
-        <v>20</v>
-      </c>
-      <c r="N42">
-        <v>0.95</v>
-      </c>
-      <c r="O42">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P42" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q42">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="J43" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K43">
-        <v>0.04761904761904762</v>
-      </c>
-      <c r="L43">
-        <v>26</v>
-      </c>
-      <c r="M43">
-        <v>27</v>
-      </c>
-      <c r="N43">
-        <v>0.96</v>
-      </c>
-      <c r="O43">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P43" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q43">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="J44" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K44">
-        <v>0.04590984974958263</v>
-      </c>
-      <c r="L44">
-        <v>55</v>
-      </c>
-      <c r="M44">
-        <v>57</v>
-      </c>
-      <c r="N44">
-        <v>0.96</v>
-      </c>
-      <c r="O44">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P44" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q44">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="J45" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K45">
-        <v>0.02040816326530612</v>
-      </c>
-      <c r="L45">
-        <v>26</v>
-      </c>
-      <c r="M45">
-        <v>41</v>
-      </c>
-      <c r="N45">
-        <v>0.63</v>
-      </c>
-      <c r="O45">
-        <v>0.37</v>
-      </c>
-      <c r="P45" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q45">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="J46" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K46">
-        <v>0.01729323308270677</v>
-      </c>
-      <c r="L46">
-        <v>46</v>
-      </c>
-      <c r="M46">
-        <v>59</v>
-      </c>
-      <c r="N46">
-        <v>0.78</v>
-      </c>
-      <c r="O46">
-        <v>0.22</v>
-      </c>
-      <c r="P46" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q46">
-        <v>2614</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="J47" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K47">
-        <v>0.01607584501236603</v>
-      </c>
-      <c r="L47">
-        <v>39</v>
-      </c>
-      <c r="M47">
-        <v>58</v>
-      </c>
-      <c r="N47">
-        <v>0.67</v>
-      </c>
-      <c r="O47">
-        <v>0.33</v>
-      </c>
-      <c r="P47" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q47">
-        <v>2387</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="J48" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K48">
-        <v>0.01575299306868305</v>
-      </c>
-      <c r="L48">
-        <v>25</v>
-      </c>
       <c r="M48">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N48">
-        <v>0.78</v>
+        <v>0.88</v>
       </c>
       <c r="O48">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>1562</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K49">
-        <v>0.01381331100879029</v>
+        <v>0.01191454396055875</v>
       </c>
       <c r="L49">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M49">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N49">
-        <v>0.87</v>
+        <v>0.72</v>
       </c>
       <c r="O49">
-        <v>0.13</v>
+        <v>0.28</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>2356</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K50">
-        <v>0.01209583624098628</v>
+        <v>0.01109989909182644</v>
       </c>
       <c r="L50">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M50">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="N50">
-        <v>0.64</v>
+        <v>0.57</v>
       </c>
       <c r="O50">
-        <v>0.36</v>
+        <v>0.43</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>4247</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="K51">
-        <v>0.01131008482563619</v>
+        <v>0.01046998604001861</v>
       </c>
       <c r="L51">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="M51">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="N51">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="O51">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>3147</v>
+        <v>4253</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="K52">
-        <v>0.009775171065493646</v>
+        <v>0.007849293563579277</v>
       </c>
       <c r="L52">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="M52">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="N52">
-        <v>0.5</v>
+        <v>0.61</v>
       </c>
       <c r="O52">
-        <v>0.5</v>
+        <v>0.39</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>5065</v>
+        <v>3160</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K53">
-        <v>0.00889248181083266</v>
+        <v>0.007029876977152899</v>
       </c>
       <c r="L53">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M53">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="N53">
-        <v>0.48</v>
+        <v>0.45</v>
       </c>
       <c r="O53">
-        <v>0.52</v>
+        <v>0.55</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>4904</v>
+        <v>5085</v>
       </c>
     </row>
   </sheetData>
